--- a/StudentShiftDB.xlsx
+++ b/StudentShiftDB.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/57bd63416e0782a4/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maste\OneDrive\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="481" documentId="8_{2054280E-B48E-4B67-A5C8-E41A8560B1A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{729ED08B-0173-4866-85B4-FFAE056720D5}"/>
+  <xr:revisionPtr revIDLastSave="530" documentId="8_{2054280E-B48E-4B67-A5C8-E41A8560B1A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2D1565DF-6E9C-4429-AEE6-0A2E3686866B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{96FE1088-F6A7-4464-A485-75F0F146245B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="204">
   <si>
     <t>Name</t>
   </si>
@@ -642,6 +642,9 @@
   </si>
   <si>
     <t xml:space="preserve">Chemist </t>
+  </si>
+  <si>
+    <t>Salary</t>
   </si>
 </sst>
 </file>
@@ -684,7 +687,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -695,6 +698,7 @@
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1009,10 +1013,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{190AA5AA-C4C7-4AF5-86D9-AFC24E277B80}">
-  <dimension ref="A1:J50"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1030,7 +1034,7 @@
     <col min="12" max="12" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1061,8 +1065,11 @@
       <c r="J1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1093,8 +1100,11 @@
       <c r="J2">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="8">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1122,8 +1132,11 @@
       <c r="J3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" s="8">
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1151,8 +1164,11 @@
       <c r="J4">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" s="8">
+        <v>38000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1180,8 +1196,11 @@
       <c r="J5">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" s="8">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1209,8 +1228,11 @@
       <c r="J6">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" s="8">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1238,8 +1260,11 @@
       <c r="J7">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" s="8">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1271,7 +1296,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1300,7 +1325,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1332,7 +1357,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
@@ -1363,8 +1388,11 @@
       <c r="J11">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11" s="8">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1420,11 @@
       <c r="J12">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12" s="8">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>24</v>
       </c>
@@ -1421,8 +1452,11 @@
       <c r="J13">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13" s="8">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>25</v>
       </c>
@@ -1450,8 +1484,11 @@
       <c r="J14">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14" s="8">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>26</v>
       </c>
@@ -1480,7 +1517,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>27</v>
       </c>
@@ -1508,8 +1545,11 @@
       <c r="J16">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16" s="8">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>28</v>
       </c>
@@ -1540,8 +1580,11 @@
       <c r="J17">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17" s="8">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>29</v>
       </c>
@@ -1572,8 +1615,11 @@
       <c r="J18">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18" s="8">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>30</v>
       </c>
@@ -1604,8 +1650,11 @@
       <c r="J19">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19" s="8">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>31</v>
       </c>
@@ -1633,8 +1682,11 @@
       <c r="J20">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20" s="8">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>32</v>
       </c>
@@ -1662,8 +1714,11 @@
       <c r="J21">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21" s="8">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>33</v>
       </c>
@@ -1694,8 +1749,11 @@
       <c r="J22">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22" s="8">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>34</v>
       </c>
@@ -1723,8 +1781,11 @@
       <c r="J23">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23" s="8">
+        <v>38000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>35</v>
       </c>
@@ -1752,8 +1813,11 @@
       <c r="J24">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K24" s="8">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>36</v>
       </c>
@@ -1781,8 +1845,11 @@
       <c r="J25">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K25" s="8">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>37</v>
       </c>
@@ -1813,8 +1880,11 @@
       <c r="J26">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K26" s="8">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>38</v>
       </c>
@@ -1845,8 +1915,11 @@
       <c r="J27">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K27" s="8">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>118</v>
       </c>
@@ -1878,7 +1951,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>119</v>
       </c>
@@ -1909,8 +1982,11 @@
       <c r="J29">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K29" s="8">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>120</v>
       </c>
@@ -1938,8 +2014,11 @@
       <c r="J30">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K30" s="8">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>121</v>
       </c>
@@ -1967,8 +2046,11 @@
       <c r="J31">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K31" s="8">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>122</v>
       </c>
@@ -2000,7 +2082,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>123</v>
       </c>
@@ -2028,8 +2110,11 @@
       <c r="J33">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K33" s="8">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>124</v>
       </c>
@@ -2057,8 +2142,11 @@
       <c r="J34">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K34" s="8">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>125</v>
       </c>
@@ -2089,8 +2177,11 @@
       <c r="J35">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K35" s="8">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>126</v>
       </c>
@@ -2121,8 +2212,11 @@
       <c r="J36">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K36" s="8">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>127</v>
       </c>
@@ -2154,7 +2248,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>128</v>
       </c>
@@ -2182,8 +2276,11 @@
       <c r="J38">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K38" s="8">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>129</v>
       </c>
@@ -2211,8 +2308,11 @@
       <c r="J39">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K39" s="8">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>130</v>
       </c>
@@ -2240,8 +2340,11 @@
       <c r="J40">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K40" s="8">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>131</v>
       </c>
@@ -2269,8 +2372,11 @@
       <c r="J41">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K41" s="8">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>132</v>
       </c>
@@ -2298,8 +2404,11 @@
       <c r="J42">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K42" s="8">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>133</v>
       </c>
@@ -2330,8 +2439,11 @@
       <c r="J43">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K43" s="8">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>134</v>
       </c>
@@ -2359,8 +2471,11 @@
       <c r="J44">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K44" s="8">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>135</v>
       </c>
@@ -2391,8 +2506,11 @@
       <c r="J45">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K45" s="8">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>136</v>
       </c>
@@ -2424,7 +2542,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>137</v>
       </c>
@@ -2452,8 +2570,11 @@
       <c r="J47">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K47" s="8">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>139</v>
       </c>
@@ -2484,8 +2605,11 @@
       <c r="J48">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K48" s="8">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>138</v>
       </c>
@@ -2513,8 +2637,11 @@
       <c r="J49">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K49" s="8">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>140</v>
       </c>
@@ -2544,6 +2671,9 @@
       </c>
       <c r="J50">
         <v>3.4</v>
+      </c>
+      <c r="K50" s="8">
+        <v>52500</v>
       </c>
     </row>
   </sheetData>
